--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 2 (39, 17, 23, 27, 8)/MDD 8 (38, 9, 49, 26, 34)/ANN_128nodes_Uniform0.05Virtual_Control(39, 17, 23, 27, 8)_MDD(38, 9, 49, 26, 34)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 2 (39, 17, 23, 27, 8)/MDD 8 (38, 9, 49, 26, 34)/ANN_128nodes_Uniform0.05Virtual_Control(39, 17, 23, 27, 8)_MDD(38, 9, 49, 26, 34)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9999999998450928</v>
+        <v>0.9999999999845814</v>
       </c>
       <c r="E2">
-        <v>0.9999999998450928</v>
+        <v>0.9999999999845814</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>6.671798059331393E-06</v>
+        <v>0.004728029049891378</v>
       </c>
       <c r="E3">
-        <v>6.671798059331393E-06</v>
+        <v>0.004728029049891378</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.8188357766249006</v>
+        <v>0.8472220674138857</v>
       </c>
       <c r="E4">
-        <v>0.8188357766249006</v>
+        <v>0.8472220674138857</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.0008179863126787269</v>
+        <v>5.112212561942627E-05</v>
       </c>
       <c r="E5">
-        <v>0.0008179863126787269</v>
+        <v>5.112212561942627E-05</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1.744394103028987E-16</v>
+        <v>9.955964823549761E-15</v>
       </c>
       <c r="E6">
-        <v>1.744394103028987E-16</v>
+        <v>9.955964823549761E-15</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9995476143712591</v>
+        <v>0.9978482232743362</v>
       </c>
       <c r="E7">
-        <v>0.0004523856287409478</v>
+        <v>0.002151776725663801</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9958098724613015</v>
+        <v>0.999934613030725</v>
       </c>
       <c r="E8">
-        <v>0.004190127538698518</v>
+        <v>6.538696927504972E-05</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -551,13 +551,13 @@
         <v>13</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0.2877592115518134</v>
+        <v>0.7885580150999533</v>
       </c>
       <c r="E9">
-        <v>0.7122407884481865</v>
+        <v>0.2114419849000467</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.9999999999874902</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1.250977099687134E-11</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.001074103705118702</v>
+        <v>0.0003226301852358588</v>
       </c>
       <c r="E11">
-        <v>0.9989258962948813</v>
+        <v>0.9996773698147642</v>
       </c>
       <c r="F11">
-        <v>3.238391876220703</v>
+        <v>3.505778074264526</v>
       </c>
       <c r="G11">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
